--- a/src/module_1/p6_test results.xlsx
+++ b/src/module_1/p6_test results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/faf89f17094f69d9/_School/2024_TU Delft Bsc EE/2025-2026/Q2_EE2L1/Project/src/module_1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="50" documentId="8_{FF6D4E3F-F320-4EC6-AC2B-1AEDDC2D4F1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B759FBC8-72AC-4C16-A430-116306E2BFB5}"/>
+  <xr:revisionPtr revIDLastSave="76" documentId="8_{FF6D4E3F-F320-4EC6-AC2B-1AEDDC2D4F1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3A9B6ADD-5A85-43F4-8687-72C013EF6AA8}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{27495DE4-06DE-42D5-9603-5AE5B78F0026}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="46">
   <si>
     <t>Folder</t>
   </si>
@@ -162,6 +162,18 @@
   </si>
   <si>
     <t>hallucinated</t>
+  </si>
+  <si>
+    <t>Uncertain at</t>
+  </si>
+  <si>
+    <t>Nothing</t>
+  </si>
+  <si>
+    <t>said peak but nothing</t>
+  </si>
+  <si>
+    <t>said wrong peak</t>
   </si>
 </sst>
 </file>
@@ -206,20 +218,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -554,44 +558,58 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00CD47B7-F6EF-4B14-A867-A755A267B47C}">
-  <dimension ref="A1:N28"/>
+  <dimension ref="A1:S28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K4" sqref="K4"/>
+      <selection pane="bottomRight" activeCell="O20" sqref="O20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="43" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="2"/>
-    <col min="8" max="8" width="9.140625" style="2"/>
-    <col min="9" max="9" width="9.140625" style="6"/>
-    <col min="10" max="10" width="9.140625" style="2"/>
-    <col min="11" max="12" width="9.140625" style="6"/>
+    <col min="6" max="6" width="9.140625" style="1"/>
+    <col min="8" max="8" width="9.140625" style="1"/>
+    <col min="10" max="10" width="9.140625" style="1"/>
+    <col min="12" max="12" width="9.140625" style="1"/>
+    <col min="14" max="14" width="9.140625" style="1"/>
+    <col min="16" max="16" width="9.140625" style="1"/>
+    <col min="18" max="18" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="F1" s="1" t="s">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="F1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="1"/>
-      <c r="H1" s="4" t="s">
+      <c r="G1" s="2"/>
+      <c r="H1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="I1" s="4"/>
-      <c r="J1" s="8" t="s">
+      <c r="I1" s="2"/>
+      <c r="J1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="K1" s="5"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="S1" s="2"/>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -607,26 +625,44 @@
       <c r="E2" t="s">
         <v>32</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="1" t="s">
         <v>33</v>
       </c>
       <c r="G2" t="s">
         <v>34</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I2" t="s">
         <v>38</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="K2" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M2" t="s">
+        <v>38</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="O2" t="s">
+        <v>38</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -642,26 +678,26 @@
       <c r="E3">
         <v>22</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="1">
         <v>0</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H3" s="1">
+        <v>2</v>
+      </c>
+      <c r="I3">
         <v>1</v>
       </c>
-      <c r="I3" s="7">
-        <v>1</v>
-      </c>
-      <c r="J3" s="2">
-        <v>1</v>
-      </c>
-      <c r="K3" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J3" s="1">
+        <v>3</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -669,7 +705,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -677,7 +713,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -685,7 +721,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -693,7 +729,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>2</v>
       </c>
@@ -701,7 +737,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -709,7 +745,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>3</v>
       </c>
@@ -717,7 +753,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>3</v>
       </c>
@@ -725,7 +761,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>3</v>
       </c>
@@ -733,7 +769,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>3</v>
       </c>
@@ -741,7 +777,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>3</v>
       </c>
@@ -749,7 +785,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -757,7 +793,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>4</v>
       </c>
@@ -846,17 +882,21 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F28" s="2" t="s">
+      <c r="F28" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="H28" s="2" t="s">
+      <c r="H28" s="1" t="s">
         <v>40</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="6">
+    <mergeCell ref="R1:S1"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="H1:I1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="P1:Q1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/module_1/p6_test results.xlsx
+++ b/src/module_1/p6_test results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/faf89f17094f69d9/_School/2024_TU Delft Bsc EE/2025-2026/Q2_EE2L1/Project/src/module_1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="76" documentId="8_{FF6D4E3F-F320-4EC6-AC2B-1AEDDC2D4F1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3A9B6ADD-5A85-43F4-8687-72C013EF6AA8}"/>
+  <xr:revisionPtr revIDLastSave="134" documentId="8_{FF6D4E3F-F320-4EC6-AC2B-1AEDDC2D4F1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E8E6FD56-DB3F-4088-9C7F-52AA87C6C69E}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{27495DE4-06DE-42D5-9603-5AE5B78F0026}"/>
+    <workbookView xWindow="-10920" yWindow="645" windowWidth="28485" windowHeight="5430" xr2:uid="{27495DE4-06DE-42D5-9603-5AE5B78F0026}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="51">
   <si>
     <t>Folder</t>
   </si>
@@ -155,9 +155,6 @@
     <t>S2</t>
   </si>
   <si>
-    <t>marked uncertain at location of peak</t>
-  </si>
-  <si>
     <t>Uncertain treated as missed</t>
   </si>
   <si>
@@ -174,13 +171,31 @@
   </si>
   <si>
     <t>said wrong peak</t>
+  </si>
+  <si>
+    <t>S1 (said S2)</t>
+  </si>
+  <si>
+    <t>S2(said S1)</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>Marked wrong</t>
+  </si>
+  <si>
+    <t>S1 (was S2)</t>
+  </si>
+  <si>
+    <t>S2 (was S1)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -188,13 +203,38 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -207,25 +247,39 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right/>
-      <top/>
-      <bottom/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Calculation" xfId="2" builtinId="22"/>
+    <cellStyle name="Input" xfId="1" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -558,335 +612,940 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00CD47B7-F6EF-4B14-A867-A755A267B47C}">
-  <dimension ref="A1:S28"/>
+  <dimension ref="A1:T28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="O20" sqref="O20"/>
+      <selection pane="bottomRight" activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="43" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="1"/>
-    <col min="8" max="8" width="9.140625" style="1"/>
-    <col min="10" max="10" width="9.140625" style="1"/>
-    <col min="12" max="12" width="9.140625" style="1"/>
-    <col min="14" max="14" width="9.140625" style="1"/>
-    <col min="16" max="16" width="9.140625" style="1"/>
-    <col min="18" max="18" width="9.140625" style="1"/>
+    <col min="3" max="5" width="9.140625" style="1"/>
+    <col min="6" max="11" width="9.140625" style="4"/>
+    <col min="12" max="17" width="9.140625" style="1"/>
+    <col min="18" max="18" width="11.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="F1" s="2" t="s">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="F1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2" t="s">
+      <c r="G1" s="3"/>
+      <c r="H1" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="I1" s="2"/>
-      <c r="J1" s="1" t="s">
-        <v>39</v>
+      <c r="I1" s="3"/>
+      <c r="J1" s="4" t="s">
+        <v>48</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M1" s="2"/>
       <c r="N1" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O1" s="2"/>
       <c r="P1" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Q1" s="2"/>
       <c r="R1" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="S1" s="2"/>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T1" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K2" t="s">
-        <v>38</v>
+      <c r="J2" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>50</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="M2" t="s">
+      <c r="M2" s="1" t="s">
         <v>38</v>
       </c>
       <c r="N2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="O2" t="s">
+      <c r="O2" s="1" t="s">
         <v>38</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="Q2" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="R2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1">
         <v>109</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="1">
         <v>98</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="1">
         <v>22</v>
       </c>
-      <c r="F3" s="1">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3" s="1">
-        <v>2</v>
-      </c>
-      <c r="I3">
+      <c r="F3" s="4">
+        <f>P3</f>
+        <v>0</v>
+      </c>
+      <c r="G3" s="4">
+        <f>Q3</f>
+        <v>0</v>
+      </c>
+      <c r="H3" s="4">
+        <f>L3+N3</f>
+        <v>10</v>
+      </c>
+      <c r="I3" s="4">
+        <f>M3+O3</f>
+        <v>7</v>
+      </c>
+      <c r="J3" s="4">
+        <f>S3</f>
+        <v>0</v>
+      </c>
+      <c r="K3" s="4">
+        <f>R3</f>
+        <v>0</v>
+      </c>
+      <c r="L3" s="1">
+        <v>9</v>
+      </c>
+      <c r="M3" s="1">
+        <v>7</v>
+      </c>
+      <c r="N3" s="1">
         <v>1</v>
       </c>
-      <c r="J3" s="1">
-        <v>3</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="O3" s="1">
+        <v>0</v>
+      </c>
+      <c r="P3" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>0</v>
+      </c>
+      <c r="R3" s="1">
+        <v>0</v>
+      </c>
+      <c r="S3" s="1">
+        <v>0</v>
+      </c>
+      <c r="T3" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="C4" s="1">
+        <v>235</v>
+      </c>
+      <c r="D4" s="1">
+        <v>205</v>
+      </c>
+      <c r="E4" s="1">
+        <v>14</v>
+      </c>
+      <c r="F4" s="4">
+        <f t="shared" ref="F4:F26" si="0">P4</f>
+        <v>0</v>
+      </c>
+      <c r="G4" s="4">
+        <f t="shared" ref="G4:G26" si="1">Q4</f>
+        <v>0</v>
+      </c>
+      <c r="H4" s="4">
+        <f t="shared" ref="H4:H26" si="2">L4+N4</f>
+        <v>0</v>
+      </c>
+      <c r="I4" s="4">
+        <f t="shared" ref="I4:I26" si="3">M4+O4</f>
+        <v>0</v>
+      </c>
+      <c r="J4" s="4">
+        <f t="shared" ref="J4:J26" si="4">S4</f>
+        <v>0</v>
+      </c>
+      <c r="K4" s="4">
+        <f t="shared" ref="K4:K26" si="5">R4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="F5" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G5" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H5" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I5" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J5" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K5" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>2</v>
       </c>
       <c r="B6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="F6" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G6" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H6" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I6" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J6" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K6" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>2</v>
       </c>
       <c r="B7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="F7" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G7" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H7" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I7" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J7" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K7" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>2</v>
       </c>
       <c r="B8" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="F8" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G8" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H8" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I8" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J8" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K8" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>3</v>
       </c>
       <c r="B9" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="F9" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G9" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H9" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I9" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J9" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K9" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>3</v>
       </c>
       <c r="B10" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="F10" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G10" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H10" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I10" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J10" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K10" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>3</v>
       </c>
       <c r="B11" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="F11" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G11" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H11" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I11" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J11" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K11" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>3</v>
       </c>
       <c r="B12" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="F12" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G12" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H12" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I12" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J12" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K12" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>3</v>
       </c>
       <c r="B13" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="F13" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G13" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H13" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I13" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J13" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K13" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>3</v>
       </c>
       <c r="B14" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="F14" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G14" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H14" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I14" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J14" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K14" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>4</v>
       </c>
       <c r="B15" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="F15" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G15" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H15" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I15" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J15" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K15" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>4</v>
       </c>
       <c r="B16" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F16" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G16" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H16" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I16" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J16" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K16" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>4</v>
       </c>
       <c r="B17" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F17" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G17" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H17" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I17" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J17" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K17" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>4</v>
       </c>
       <c r="B18" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F18" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G18" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H18" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I18" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J18" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K18" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>4</v>
       </c>
       <c r="B19" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F19" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G19" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H19" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I19" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J19" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K19" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>4</v>
       </c>
       <c r="B20" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F20" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G20" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H20" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I20" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J20" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K20" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>5</v>
       </c>
       <c r="B21" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F21" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G21" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H21" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I21" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J21" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K21" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>5</v>
       </c>
       <c r="B22" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F22" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G22" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H22" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I22" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J22" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K22" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>5</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F23" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G23" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H23" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I23" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J23" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K23" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>5</v>
       </c>
       <c r="B24" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F24" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G24" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H24" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I24" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J24" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K24" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>5</v>
       </c>
       <c r="B25" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F25" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G25" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H25" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I25" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J25" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K25" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>5</v>
       </c>
       <c r="B26" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F28" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="H28" s="1" t="s">
+      <c r="F26" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G26" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H26" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I26" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J26" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K26" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F28" s="4" t="s">
         <v>40</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/src/module_1/p6_test results.xlsx
+++ b/src/module_1/p6_test results.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="134" documentId="8_{FF6D4E3F-F320-4EC6-AC2B-1AEDDC2D4F1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E8E6FD56-DB3F-4088-9C7F-52AA87C6C69E}"/>
   <bookViews>
-    <workbookView xWindow="-10920" yWindow="645" windowWidth="28485" windowHeight="5430" xr2:uid="{27495DE4-06DE-42D5-9603-5AE5B78F0026}"/>
+    <workbookView xWindow="4215" yWindow="11640" windowWidth="28485" windowHeight="5430" xr2:uid="{27495DE4-06DE-42D5-9603-5AE5B78F0026}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>

--- a/src/module_1/p6_test results.xlsx
+++ b/src/module_1/p6_test results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/faf89f17094f69d9/_School/2024_TU Delft Bsc EE/2025-2026/Q2_EE2L1/Project/src/module_1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="134" documentId="8_{FF6D4E3F-F320-4EC6-AC2B-1AEDDC2D4F1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E8E6FD56-DB3F-4088-9C7F-52AA87C6C69E}"/>
+  <xr:revisionPtr revIDLastSave="155" documentId="8_{FF6D4E3F-F320-4EC6-AC2B-1AEDDC2D4F1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8C58E43A-D9B1-4DAE-AFD2-2F6088ED7993}"/>
   <bookViews>
-    <workbookView xWindow="4215" yWindow="11640" windowWidth="28485" windowHeight="5430" xr2:uid="{27495DE4-06DE-42D5-9603-5AE5B78F0026}"/>
+    <workbookView xWindow="16410" yWindow="8925" windowWidth="28485" windowHeight="5430" xr2:uid="{27495DE4-06DE-42D5-9603-5AE5B78F0026}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -618,7 +618,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L4" sqref="L4"/>
+      <selection pane="bottomRight" activeCell="S5" sqref="S5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -835,6 +835,33 @@
         <f t="shared" ref="K4:K26" si="5">R4</f>
         <v>0</v>
       </c>
+      <c r="L4" s="1">
+        <v>0</v>
+      </c>
+      <c r="M4" s="1">
+        <v>0</v>
+      </c>
+      <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>0</v>
+      </c>
+      <c r="P4" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>0</v>
+      </c>
+      <c r="R4" s="1">
+        <v>0</v>
+      </c>
+      <c r="S4" s="1">
+        <v>0</v>
+      </c>
+      <c r="T4" s="1">
+        <v>14</v>
+      </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -843,6 +870,15 @@
       <c r="B5" t="s">
         <v>8</v>
       </c>
+      <c r="C5" s="1">
+        <v>104</v>
+      </c>
+      <c r="D5" s="1">
+        <v>103</v>
+      </c>
+      <c r="E5" s="1">
+        <v>2</v>
+      </c>
       <c r="F5" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -866,6 +902,33 @@
       <c r="K5" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
+      </c>
+      <c r="L5" s="1">
+        <v>0</v>
+      </c>
+      <c r="M5" s="1">
+        <v>0</v>
+      </c>
+      <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>0</v>
+      </c>
+      <c r="P5" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>0</v>
+      </c>
+      <c r="R5" s="1">
+        <v>0</v>
+      </c>
+      <c r="S5" s="1">
+        <v>0</v>
+      </c>
+      <c r="T5" s="1">
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">

--- a/src/module_1/p6_test results.xlsx
+++ b/src/module_1/p6_test results.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/faf89f17094f69d9/_School/2024_TU Delft Bsc EE/2025-2026/Q2_EE2L1/Project/src/module_1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="155" documentId="8_{FF6D4E3F-F320-4EC6-AC2B-1AEDDC2D4F1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8C58E43A-D9B1-4DAE-AFD2-2F6088ED7993}"/>
+  <xr:revisionPtr revIDLastSave="266" documentId="8_{FF6D4E3F-F320-4EC6-AC2B-1AEDDC2D4F1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{34C13317-40C0-4758-9F41-BCBF1E810337}"/>
   <bookViews>
-    <workbookView xWindow="16410" yWindow="8925" windowWidth="28485" windowHeight="5430" xr2:uid="{27495DE4-06DE-42D5-9603-5AE5B78F0026}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="1" xr2:uid="{27495DE4-06DE-42D5-9603-5AE5B78F0026}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Old config" sheetId="1" r:id="rId1"/>
+    <sheet name="With new config" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="52">
   <si>
     <t>Folder</t>
   </si>
@@ -189,16 +190,26 @@
   </si>
   <si>
     <t>S2 (was S1)</t>
+  </si>
+  <si>
+    <t>Errors</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -219,12 +230,17 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -261,25 +277,29 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="3" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="3"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="Calculation" xfId="2" builtinId="22"/>
-    <cellStyle name="Input" xfId="1" builtinId="20"/>
+  <cellStyles count="4">
+    <cellStyle name="Bad" xfId="1" builtinId="27"/>
+    <cellStyle name="Calculation" xfId="3" builtinId="22"/>
+    <cellStyle name="Input" xfId="2" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -612,13 +632,1042 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00CD47B7-F6EF-4B14-A867-A755A267B47C}">
+  <dimension ref="A1:U28"/>
+  <sheetViews>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="U7" sqref="U7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="9.140625" style="1"/>
+    <col min="6" max="11" width="9.140625" style="4"/>
+    <col min="12" max="17" width="9.140625" style="1"/>
+    <col min="18" max="18" width="11.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="F1" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I1" s="3"/>
+      <c r="J1" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="S1" s="2"/>
+      <c r="T1" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1">
+        <v>109</v>
+      </c>
+      <c r="D3" s="1">
+        <v>98</v>
+      </c>
+      <c r="E3" s="1">
+        <v>22</v>
+      </c>
+      <c r="F3" s="4">
+        <f>P3</f>
+        <v>0</v>
+      </c>
+      <c r="G3" s="4">
+        <f>Q3</f>
+        <v>0</v>
+      </c>
+      <c r="H3" s="4">
+        <f>L3+N3</f>
+        <v>10</v>
+      </c>
+      <c r="I3" s="4">
+        <f>M3+O3</f>
+        <v>7</v>
+      </c>
+      <c r="J3" s="4">
+        <f>S3</f>
+        <v>0</v>
+      </c>
+      <c r="K3" s="4">
+        <f>R3</f>
+        <v>0</v>
+      </c>
+      <c r="L3" s="1">
+        <v>9</v>
+      </c>
+      <c r="M3" s="1">
+        <v>7</v>
+      </c>
+      <c r="N3" s="1">
+        <v>1</v>
+      </c>
+      <c r="O3" s="1">
+        <v>0</v>
+      </c>
+      <c r="P3" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>0</v>
+      </c>
+      <c r="R3" s="1">
+        <v>0</v>
+      </c>
+      <c r="S3" s="1">
+        <v>0</v>
+      </c>
+      <c r="T3" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="1">
+        <v>235</v>
+      </c>
+      <c r="D4" s="1">
+        <v>205</v>
+      </c>
+      <c r="E4" s="1">
+        <v>14</v>
+      </c>
+      <c r="F4" s="4">
+        <f t="shared" ref="F4:F26" si="0">P4</f>
+        <v>0</v>
+      </c>
+      <c r="G4" s="4">
+        <f t="shared" ref="G4:G26" si="1">Q4</f>
+        <v>0</v>
+      </c>
+      <c r="H4" s="4">
+        <f t="shared" ref="H4:H26" si="2">L4+N4</f>
+        <v>0</v>
+      </c>
+      <c r="I4" s="4">
+        <f t="shared" ref="I4:I26" si="3">M4+O4</f>
+        <v>0</v>
+      </c>
+      <c r="J4" s="4">
+        <f t="shared" ref="J4:J26" si="4">S4</f>
+        <v>0</v>
+      </c>
+      <c r="K4" s="4">
+        <f t="shared" ref="K4:K26" si="5">R4</f>
+        <v>0</v>
+      </c>
+      <c r="L4" s="1">
+        <v>0</v>
+      </c>
+      <c r="M4" s="1">
+        <v>0</v>
+      </c>
+      <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>0</v>
+      </c>
+      <c r="P4" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>0</v>
+      </c>
+      <c r="R4" s="1">
+        <v>0</v>
+      </c>
+      <c r="S4" s="1">
+        <v>0</v>
+      </c>
+      <c r="T4" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="1">
+        <v>104</v>
+      </c>
+      <c r="D5" s="1">
+        <v>103</v>
+      </c>
+      <c r="E5" s="1">
+        <v>2</v>
+      </c>
+      <c r="F5" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G5" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H5" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I5" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J5" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K5" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L5" s="1">
+        <v>0</v>
+      </c>
+      <c r="M5" s="1">
+        <v>0</v>
+      </c>
+      <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>0</v>
+      </c>
+      <c r="P5" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>0</v>
+      </c>
+      <c r="R5" s="1">
+        <v>0</v>
+      </c>
+      <c r="S5" s="1">
+        <v>0</v>
+      </c>
+      <c r="T5" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G6" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H6" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I6" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J6" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K6" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="6"/>
+      <c r="R6" s="6"/>
+      <c r="S6" s="6"/>
+      <c r="T6" s="6"/>
+      <c r="U6" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G7" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H7" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I7" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J7" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K7" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G8" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H8" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I8" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J8" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K8" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G9" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H9" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I9" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J9" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K9" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G10" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H10" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I10" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J10" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K10" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G11" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H11" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I11" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J11" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K11" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G12" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H12" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I12" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J12" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K12" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G13" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H13" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I13" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J13" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K13" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G14" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H14" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I14" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J14" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K14" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" t="s">
+        <v>18</v>
+      </c>
+      <c r="F15" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G15" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H15" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I15" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J15" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K15" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" t="s">
+        <v>19</v>
+      </c>
+      <c r="F16" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G16" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H16" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I16" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J16" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K16" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" t="s">
+        <v>20</v>
+      </c>
+      <c r="F17" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G17" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H17" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I17" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J17" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K17" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" t="s">
+        <v>21</v>
+      </c>
+      <c r="F18" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G18" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H18" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I18" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J18" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K18" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" t="s">
+        <v>22</v>
+      </c>
+      <c r="F19" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G19" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H19" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I19" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J19" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K19" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" t="s">
+        <v>23</v>
+      </c>
+      <c r="F20" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G20" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H20" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I20" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J20" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K20" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="F21" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G21" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H21" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I21" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J21" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K21" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="F22" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G22" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H22" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I22" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J22" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K22" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="F23" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G23" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H23" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I23" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J23" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K23" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24" t="s">
+        <v>27</v>
+      </c>
+      <c r="F24" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G24" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H24" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I24" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J24" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K24" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25" t="s">
+        <v>28</v>
+      </c>
+      <c r="F25" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G25" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H25" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I25" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J25" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K25" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>5</v>
+      </c>
+      <c r="B26" t="s">
+        <v>29</v>
+      </c>
+      <c r="F26" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G26" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H26" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I26" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J26" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K26" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F28" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="P1:Q1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B30D275-F070-4BE2-8B55-94F930913A2C}">
   <dimension ref="A1:T28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="S5" sqref="S5"/>
+      <selection pane="bottomRight" activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -735,17 +1784,17 @@
         <v>6</v>
       </c>
       <c r="C3" s="1">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="D3" s="1">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="E3" s="1">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F3" s="4">
         <f>P3</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3" s="4">
         <f>Q3</f>
@@ -753,11 +1802,11 @@
       </c>
       <c r="H3" s="4">
         <f>L3+N3</f>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I3" s="4">
         <f>M3+O3</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J3" s="4">
         <f>S3</f>
@@ -768,20 +1817,20 @@
         <v>0</v>
       </c>
       <c r="L3" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="M3" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>0</v>
+      </c>
+      <c r="P3" s="1">
         <v>1</v>
       </c>
-      <c r="O3" s="1">
-        <v>0</v>
-      </c>
-      <c r="P3" s="1">
-        <v>0</v>
-      </c>
       <c r="Q3" s="1">
         <v>0</v>
       </c>
@@ -792,7 +1841,7 @@
         <v>0</v>
       </c>
       <c r="T3" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
@@ -803,55 +1852,55 @@
         <v>7</v>
       </c>
       <c r="C4" s="1">
-        <v>235</v>
+        <v>109</v>
       </c>
       <c r="D4" s="1">
-        <v>205</v>
+        <v>90</v>
       </c>
       <c r="E4" s="1">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F4" s="4">
-        <f t="shared" ref="F4:F26" si="0">P4</f>
+        <f t="shared" ref="F4:G26" si="0">P4</f>
         <v>0</v>
       </c>
       <c r="G4" s="4">
-        <f t="shared" ref="G4:G26" si="1">Q4</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="H4" s="4">
-        <f t="shared" ref="H4:H26" si="2">L4+N4</f>
-        <v>0</v>
+        <f t="shared" ref="H4:I26" si="1">L4+N4</f>
+        <v>10</v>
       </c>
       <c r="I4" s="4">
-        <f t="shared" ref="I4:I26" si="3">M4+O4</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>15</v>
       </c>
       <c r="J4" s="4">
-        <f t="shared" ref="J4:J26" si="4">S4</f>
+        <f t="shared" ref="J4:J26" si="2">S4</f>
         <v>0</v>
       </c>
       <c r="K4" s="4">
-        <f t="shared" ref="K4:K26" si="5">R4</f>
+        <f t="shared" ref="K4:K26" si="3">R4</f>
         <v>0</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M4" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="N4" s="1">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="O4" s="1">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="P4" s="1">
         <v>0</v>
       </c>
       <c r="Q4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R4" s="1">
         <v>0</v>
@@ -860,7 +1909,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="1">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
@@ -884,23 +1933,23 @@
         <v>0</v>
       </c>
       <c r="G5" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H5" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I5" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J5" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K5" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L5" s="1">
@@ -938,28 +1987,64 @@
       <c r="B6" t="s">
         <v>9</v>
       </c>
+      <c r="C6" s="1">
+        <v>95</v>
+      </c>
+      <c r="D6" s="1">
+        <v>93</v>
+      </c>
+      <c r="E6" s="1">
+        <v>12</v>
+      </c>
       <c r="F6" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G6" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H6" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>4</v>
       </c>
       <c r="I6" s="4">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>8</v>
       </c>
       <c r="J6" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K6" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L6" s="1">
+        <v>4</v>
+      </c>
+      <c r="M6" s="1">
+        <v>8</v>
+      </c>
+      <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>0</v>
+      </c>
+      <c r="P6" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>0</v>
+      </c>
+      <c r="R6" s="1">
+        <v>0</v>
+      </c>
+      <c r="S6" s="1">
+        <v>0</v>
+      </c>
+      <c r="T6" s="1">
         <v>0</v>
       </c>
     </row>
@@ -970,62 +2055,110 @@
       <c r="B7" t="s">
         <v>10</v>
       </c>
+      <c r="C7" s="1">
+        <v>100</v>
+      </c>
+      <c r="D7" s="1">
+        <v>100</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0</v>
+      </c>
       <c r="F7" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G7" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H7" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I7" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J7" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K7" s="4">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L7" s="1">
+        <v>0</v>
+      </c>
+      <c r="M7" s="1">
+        <v>0</v>
+      </c>
+      <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>0</v>
+      </c>
+      <c r="P7" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>0</v>
+      </c>
+      <c r="R7" s="1">
+        <v>0</v>
+      </c>
+      <c r="S7" s="1">
+        <v>0</v>
+      </c>
+      <c r="T7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G8" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H8" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I8" s="4">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J8" s="4">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="K8" s="4">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G8" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H8" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I8" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J8" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K8" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="6"/>
+      <c r="S8" s="6"/>
+      <c r="T8" s="6"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -1039,23 +2172,23 @@
         <v>0</v>
       </c>
       <c r="G9" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H9" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I9" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J9" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K9" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -1071,23 +2204,23 @@
         <v>0</v>
       </c>
       <c r="G10" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H10" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I10" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J10" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K10" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -1103,23 +2236,23 @@
         <v>0</v>
       </c>
       <c r="G11" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H11" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I11" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J11" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K11" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -1135,23 +2268,23 @@
         <v>0</v>
       </c>
       <c r="G12" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H12" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I12" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J12" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K12" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -1167,23 +2300,23 @@
         <v>0</v>
       </c>
       <c r="G13" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H13" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I13" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J13" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K13" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -1199,23 +2332,23 @@
         <v>0</v>
       </c>
       <c r="G14" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H14" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I14" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J14" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K14" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -1231,23 +2364,23 @@
         <v>0</v>
       </c>
       <c r="G15" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H15" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I15" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J15" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K15" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -1263,23 +2396,23 @@
         <v>0</v>
       </c>
       <c r="G16" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H16" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I16" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J16" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K16" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -1295,23 +2428,23 @@
         <v>0</v>
       </c>
       <c r="G17" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H17" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I17" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J17" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K17" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -1327,23 +2460,23 @@
         <v>0</v>
       </c>
       <c r="G18" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H18" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I18" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J18" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K18" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -1359,23 +2492,23 @@
         <v>0</v>
       </c>
       <c r="G19" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H19" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I19" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J19" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K19" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -1391,23 +2524,23 @@
         <v>0</v>
       </c>
       <c r="G20" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H20" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I20" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J20" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K20" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -1423,23 +2556,23 @@
         <v>0</v>
       </c>
       <c r="G21" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H21" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I21" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J21" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K21" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -1455,23 +2588,23 @@
         <v>0</v>
       </c>
       <c r="G22" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H22" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I22" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J22" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K22" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -1487,23 +2620,23 @@
         <v>0</v>
       </c>
       <c r="G23" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H23" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I23" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J23" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K23" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -1519,23 +2652,23 @@
         <v>0</v>
       </c>
       <c r="G24" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H24" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I24" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J24" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K24" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -1551,23 +2684,23 @@
         <v>0</v>
       </c>
       <c r="G25" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H25" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I25" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J25" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K25" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -1583,23 +2716,23 @@
         <v>0</v>
       </c>
       <c r="G26" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H26" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I26" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J26" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K26" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -1613,12 +2746,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="R1:S1"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="L1:M1"/>
     <mergeCell ref="N1:O1"/>
     <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="R1:S1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/module_1/p6_test results.xlsx
+++ b/src/module_1/p6_test results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/faf89f17094f69d9/_School/2024_TU Delft Bsc EE/2025-2026/Q2_EE2L1/Project/src/module_1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="326" documentId="8_{FF6D4E3F-F320-4EC6-AC2B-1AEDDC2D4F1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4AC64E0E-B107-485D-8C5D-72BCC6DF6B3D}"/>
+  <xr:revisionPtr revIDLastSave="464" documentId="8_{FF6D4E3F-F320-4EC6-AC2B-1AEDDC2D4F1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5F61E36C-A305-41D9-9267-5D2862A01F48}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="1" xr2:uid="{27495DE4-06DE-42D5-9603-5AE5B78F0026}"/>
   </bookViews>
@@ -1664,10 +1664,10 @@
   <dimension ref="A1:T28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="E6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="P14" sqref="P14"/>
+      <selection pane="bottomRight" activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2541,6 +2541,15 @@
       <c r="B15" t="s">
         <v>18</v>
       </c>
+      <c r="C15" s="1">
+        <v>111</v>
+      </c>
+      <c r="D15" s="1">
+        <v>110</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0</v>
+      </c>
       <c r="F15" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2563,6 +2572,33 @@
       </c>
       <c r="K15" s="2">
         <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L15" s="1">
+        <v>0</v>
+      </c>
+      <c r="M15" s="1">
+        <v>0</v>
+      </c>
+      <c r="N15" s="1">
+        <v>0</v>
+      </c>
+      <c r="O15" s="1">
+        <v>0</v>
+      </c>
+      <c r="P15" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="1">
+        <v>0</v>
+      </c>
+      <c r="R15" s="1">
+        <v>0</v>
+      </c>
+      <c r="S15" s="1">
+        <v>0</v>
+      </c>
+      <c r="T15" s="1">
         <v>0</v>
       </c>
     </row>
@@ -2573,6 +2609,15 @@
       <c r="B16" t="s">
         <v>19</v>
       </c>
+      <c r="C16" s="1">
+        <v>110</v>
+      </c>
+      <c r="D16" s="1">
+        <v>109</v>
+      </c>
+      <c r="E16" s="1">
+        <v>2</v>
+      </c>
       <c r="F16" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2583,11 +2628,11 @@
       </c>
       <c r="H16" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J16" s="2">
         <f t="shared" si="2"/>
@@ -2597,14 +2642,50 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L16" s="1">
+        <v>0</v>
+      </c>
+      <c r="M16" s="1">
+        <v>2</v>
+      </c>
+      <c r="N16" s="1">
+        <v>1</v>
+      </c>
+      <c r="O16" s="1">
+        <v>0</v>
+      </c>
+      <c r="P16" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="1">
+        <v>0</v>
+      </c>
+      <c r="R16" s="1">
+        <v>0</v>
+      </c>
+      <c r="S16" s="1">
+        <v>0</v>
+      </c>
+      <c r="T16" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>4</v>
       </c>
       <c r="B17" t="s">
         <v>20</v>
       </c>
+      <c r="C17" s="1">
+        <v>111</v>
+      </c>
+      <c r="D17" s="1">
+        <v>110</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0</v>
+      </c>
       <c r="F17" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2629,14 +2710,50 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L17" s="1">
+        <v>0</v>
+      </c>
+      <c r="M17" s="1">
+        <v>0</v>
+      </c>
+      <c r="N17" s="1">
+        <v>0</v>
+      </c>
+      <c r="O17" s="1">
+        <v>0</v>
+      </c>
+      <c r="P17" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="1">
+        <v>0</v>
+      </c>
+      <c r="R17" s="1">
+        <v>0</v>
+      </c>
+      <c r="S17" s="1">
+        <v>0</v>
+      </c>
+      <c r="T17" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>4</v>
       </c>
       <c r="B18" t="s">
         <v>21</v>
       </c>
+      <c r="C18" s="1">
+        <v>111</v>
+      </c>
+      <c r="D18" s="1">
+        <v>110</v>
+      </c>
+      <c r="E18" s="1">
+        <v>0</v>
+      </c>
       <c r="F18" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2661,14 +2778,50 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L18" s="1">
+        <v>0</v>
+      </c>
+      <c r="M18" s="1">
+        <v>0</v>
+      </c>
+      <c r="N18" s="1">
+        <v>0</v>
+      </c>
+      <c r="O18" s="1">
+        <v>0</v>
+      </c>
+      <c r="P18" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="1">
+        <v>0</v>
+      </c>
+      <c r="R18" s="1">
+        <v>0</v>
+      </c>
+      <c r="S18" s="1">
+        <v>0</v>
+      </c>
+      <c r="T18" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>4</v>
       </c>
       <c r="B19" t="s">
         <v>22</v>
       </c>
+      <c r="C19" s="1">
+        <v>111</v>
+      </c>
+      <c r="D19" s="1">
+        <v>110</v>
+      </c>
+      <c r="E19" s="1">
+        <v>0</v>
+      </c>
       <c r="F19" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2693,14 +2846,50 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L19" s="1">
+        <v>0</v>
+      </c>
+      <c r="M19" s="1">
+        <v>0</v>
+      </c>
+      <c r="N19" s="1">
+        <v>0</v>
+      </c>
+      <c r="O19" s="1">
+        <v>0</v>
+      </c>
+      <c r="P19" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="1">
+        <v>0</v>
+      </c>
+      <c r="R19" s="1">
+        <v>0</v>
+      </c>
+      <c r="S19" s="1">
+        <v>0</v>
+      </c>
+      <c r="T19" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>4</v>
       </c>
       <c r="B20" t="s">
         <v>23</v>
       </c>
+      <c r="C20" s="1">
+        <v>111</v>
+      </c>
+      <c r="D20" s="1">
+        <v>110</v>
+      </c>
+      <c r="E20" s="1">
+        <v>2</v>
+      </c>
       <c r="F20" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2711,11 +2900,11 @@
       </c>
       <c r="H20" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20" s="2">
         <f t="shared" si="2"/>
@@ -2725,14 +2914,50 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L20" s="1">
+        <v>1</v>
+      </c>
+      <c r="M20" s="1">
+        <v>1</v>
+      </c>
+      <c r="N20" s="1">
+        <v>0</v>
+      </c>
+      <c r="O20" s="1">
+        <v>0</v>
+      </c>
+      <c r="P20" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="1">
+        <v>0</v>
+      </c>
+      <c r="R20" s="1">
+        <v>0</v>
+      </c>
+      <c r="S20" s="1">
+        <v>0</v>
+      </c>
+      <c r="T20" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>5</v>
       </c>
       <c r="B21" t="s">
         <v>24</v>
       </c>
+      <c r="C21" s="1">
+        <v>113</v>
+      </c>
+      <c r="D21" s="1">
+        <v>112</v>
+      </c>
+      <c r="E21" s="1">
+        <v>0</v>
+      </c>
       <c r="F21" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2757,14 +2982,50 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L21" s="1">
+        <v>0</v>
+      </c>
+      <c r="M21" s="1">
+        <v>0</v>
+      </c>
+      <c r="N21" s="1">
+        <v>0</v>
+      </c>
+      <c r="O21" s="1">
+        <v>0</v>
+      </c>
+      <c r="P21" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="1">
+        <v>0</v>
+      </c>
+      <c r="R21" s="1">
+        <v>0</v>
+      </c>
+      <c r="S21" s="1">
+        <v>0</v>
+      </c>
+      <c r="T21" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>5</v>
       </c>
       <c r="B22" t="s">
         <v>25</v>
       </c>
+      <c r="C22" s="1">
+        <v>114</v>
+      </c>
+      <c r="D22" s="1">
+        <v>110</v>
+      </c>
+      <c r="E22" s="1">
+        <v>9</v>
+      </c>
       <c r="F22" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2775,11 +3036,11 @@
       </c>
       <c r="H22" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I22" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J22" s="2">
         <f t="shared" si="2"/>
@@ -2789,14 +3050,50 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L22" s="1">
+        <v>4</v>
+      </c>
+      <c r="M22" s="1">
+        <v>3</v>
+      </c>
+      <c r="N22" s="1">
+        <v>0</v>
+      </c>
+      <c r="O22" s="1">
+        <v>0</v>
+      </c>
+      <c r="P22" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="1">
+        <v>0</v>
+      </c>
+      <c r="R22" s="1">
+        <v>0</v>
+      </c>
+      <c r="S22" s="1">
+        <v>0</v>
+      </c>
+      <c r="T22" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>5</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
       </c>
+      <c r="C23" s="1">
+        <v>113</v>
+      </c>
+      <c r="D23" s="1">
+        <v>112</v>
+      </c>
+      <c r="E23" s="1">
+        <v>0</v>
+      </c>
       <c r="F23" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2821,14 +3118,50 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L23" s="1">
+        <v>0</v>
+      </c>
+      <c r="M23" s="1">
+        <v>0</v>
+      </c>
+      <c r="N23" s="1">
+        <v>0</v>
+      </c>
+      <c r="O23" s="1">
+        <v>0</v>
+      </c>
+      <c r="P23" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="1">
+        <v>0</v>
+      </c>
+      <c r="R23" s="1">
+        <v>0</v>
+      </c>
+      <c r="S23" s="1">
+        <v>0</v>
+      </c>
+      <c r="T23" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>5</v>
       </c>
       <c r="B24" t="s">
         <v>27</v>
       </c>
+      <c r="C24" s="1">
+        <v>113</v>
+      </c>
+      <c r="D24" s="1">
+        <v>112</v>
+      </c>
+      <c r="E24" s="1">
+        <v>0</v>
+      </c>
       <c r="F24" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2853,14 +3186,50 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L24" s="1">
+        <v>0</v>
+      </c>
+      <c r="M24" s="1">
+        <v>0</v>
+      </c>
+      <c r="N24" s="1">
+        <v>0</v>
+      </c>
+      <c r="O24" s="1">
+        <v>0</v>
+      </c>
+      <c r="P24" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="1">
+        <v>0</v>
+      </c>
+      <c r="R24" s="1">
+        <v>0</v>
+      </c>
+      <c r="S24" s="1">
+        <v>0</v>
+      </c>
+      <c r="T24" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>5</v>
       </c>
       <c r="B25" t="s">
         <v>28</v>
       </c>
+      <c r="C25" s="1">
+        <v>115</v>
+      </c>
+      <c r="D25" s="1">
+        <v>113</v>
+      </c>
+      <c r="E25" s="1">
+        <v>2</v>
+      </c>
       <c r="F25" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2885,8 +3254,35 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L25" s="1">
+        <v>0</v>
+      </c>
+      <c r="M25" s="1">
+        <v>0</v>
+      </c>
+      <c r="N25" s="1">
+        <v>0</v>
+      </c>
+      <c r="O25" s="1">
+        <v>0</v>
+      </c>
+      <c r="P25" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="1">
+        <v>0</v>
+      </c>
+      <c r="R25" s="1">
+        <v>0</v>
+      </c>
+      <c r="S25" s="1">
+        <v>0</v>
+      </c>
+      <c r="T25" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>5</v>
       </c>
@@ -2918,7 +3314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="F28" s="2" t="s">
         <v>40</v>
       </c>

--- a/src/module_1/p6_test results.xlsx
+++ b/src/module_1/p6_test results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/faf89f17094f69d9/_School/2024_TU Delft Bsc EE/2025-2026/Q2_EE2L1/Project/src/module_1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="464" documentId="8_{FF6D4E3F-F320-4EC6-AC2B-1AEDDC2D4F1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5F61E36C-A305-41D9-9267-5D2862A01F48}"/>
+  <xr:revisionPtr revIDLastSave="476" documentId="8_{FF6D4E3F-F320-4EC6-AC2B-1AEDDC2D4F1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AE9B4328-7274-431E-971D-FBE249B4B4CC}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="1" xr2:uid="{27495DE4-06DE-42D5-9603-5AE5B78F0026}"/>
   </bookViews>
@@ -1664,10 +1664,10 @@
   <dimension ref="A1:T28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D25" sqref="D25"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3289,6 +3289,15 @@
       <c r="B26" t="s">
         <v>29</v>
       </c>
+      <c r="C26" s="1">
+        <v>113</v>
+      </c>
+      <c r="D26" s="1">
+        <v>112</v>
+      </c>
+      <c r="E26" s="1">
+        <v>0</v>
+      </c>
       <c r="F26" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3311,6 +3320,33 @@
       </c>
       <c r="K26" s="2">
         <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L26" s="1">
+        <v>0</v>
+      </c>
+      <c r="M26" s="1">
+        <v>0</v>
+      </c>
+      <c r="N26" s="1">
+        <v>0</v>
+      </c>
+      <c r="O26" s="1">
+        <v>0</v>
+      </c>
+      <c r="P26" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="1">
+        <v>0</v>
+      </c>
+      <c r="R26" s="1">
+        <v>0</v>
+      </c>
+      <c r="S26" s="1">
+        <v>0</v>
+      </c>
+      <c r="T26" s="1">
         <v>0</v>
       </c>
     </row>
